--- a/cta策略/result/螺纹/ROC_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/ROC_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.1673455385399463</v>
+        <v>0.09220241340612834</v>
       </c>
       <c r="D2">
-        <v>0.6479964247611907</v>
+        <v>0.22453168982583</v>
       </c>
       <c r="E2">
-        <v>0.6975147372559288</v>
+        <v>0.1853010999676657</v>
       </c>
       <c r="F2">
-        <v>0.5625</v>
+        <v>0.7058823529411765</v>
       </c>
     </row>
   </sheetData>
